--- a/Design/DataTable/Monster/MonsterSpeciality.xlsx
+++ b/Design/DataTable/Monster/MonsterSpeciality.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\바탕 화면\plum\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LC\Documents\GitHub\PlumTowerDefecne\Design\DataTable\Monster\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A762955-142F-43D7-BE5D-7170FE6ABC3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54DEE2EE-BD09-4D69-8423-99B85D19214A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{15ACDB1F-C6AC-449D-954E-0F89D135D19B}"/>
+    <workbookView xWindow="3672" yWindow="1008" windowWidth="17280" windowHeight="8964" xr2:uid="{15ACDB1F-C6AC-449D-954E-0F89D135D19B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -546,7 +546,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
